--- a/population.xlsx
+++ b/population.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sneha/Desktop/UNI DOCS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4C0F15E-1ED6-D54F-BBFE-4A34FCD14503}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{993AC8C0-DBE8-D642-BC90-E06A7EAE33B5}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{8EAEBAB7-939F-BB47-BD56-58595331EAC9}"/>
   </bookViews>
@@ -18,29 +18,6 @@
   <externalReferences>
     <externalReference r:id="rId2"/>
   </externalReferences>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!#REF!</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$D$28:$D$28</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">[1]Sheet1!$B$2:$B$9</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">[1]Sheet1!$C$1</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">[1]Sheet1!$C$2:$C$9</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">Sheet1!#REF!</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">Sheet1!$D$28:$D$28</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">Sheet1!$E$28:$E$28</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">Sheet1!$C$12:$C$17</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">Sheet1!$D$11</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">Sheet1!$D$12:$D$17</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">Sheet1!$E$11</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$E$28:$E$28</definedName>
-    <definedName name="_xlchart.v1.20" hidden="1">Sheet1!$E$12:$E$17</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$C$12:$C$17</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$D$11</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$D$12:$D$17</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$E$11</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$E$12:$E$17</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">[1]Sheet1!$A$2:$A$9</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">[1]Sheet1!$B$1</definedName>
-  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -78,9 +55,6 @@
   </si>
   <si>
     <t>Tasmania</t>
-  </si>
-  <si>
-    <t>Food</t>
   </si>
   <si>
     <t>population</t>
@@ -153,6 +127,9 @@
   </si>
   <si>
     <t>food (tonnes)</t>
+  </si>
+  <si>
+    <t>How population effects Food supply</t>
   </si>
 </sst>
 </file>
@@ -377,6 +354,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-89EB-D942-A832-1FA4FABCA951}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -941,7 +923,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Food</c:v>
+                  <c:v>How population effects Food supply</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1192,6 +1174,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="981162303"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -4875,8 +4858,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7C83AEB-EA12-9B4B-97E6-84C756B2609C}">
   <dimension ref="A1:K49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="69" workbookViewId="0">
-      <selection activeCell="I42" sqref="I42"/>
+    <sheetView tabSelected="1" topLeftCell="C2" zoomScale="125" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -4965,10 +4948,10 @@
         <v>2</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="26">
@@ -5039,18 +5022,18 @@
     </row>
     <row r="21" spans="3:11" ht="158" customHeight="1">
       <c r="E21" s="15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="3:11" ht="87" customHeight="1">
       <c r="D22" s="14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E22" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F22" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I22" s="13"/>
       <c r="J22" s="14"/>
@@ -5058,10 +5041,10 @@
     </row>
     <row r="23" spans="3:11" ht="29">
       <c r="D23" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F23" s="6">
         <v>20552</v>
@@ -5072,10 +5055,10 @@
     </row>
     <row r="24" spans="3:11" ht="29">
       <c r="D24" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F24" s="6">
         <v>5981</v>
@@ -5086,10 +5069,10 @@
     </row>
     <row r="25" spans="3:11" ht="29">
       <c r="D25" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F25" s="6">
         <v>196</v>
@@ -5100,10 +5083,10 @@
     </row>
     <row r="26" spans="3:11" ht="29">
       <c r="D26" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F26" s="6">
         <v>1520</v>
@@ -5114,10 +5097,10 @@
     </row>
     <row r="27" spans="3:11" ht="29">
       <c r="D27" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F27" s="6">
         <v>1806</v>
@@ -5135,23 +5118,23 @@
     </row>
     <row r="39" spans="4:6" ht="129" customHeight="1">
       <c r="E39" s="15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="41" spans="4:6" ht="29">
       <c r="D41" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E41" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E41" s="6" t="s">
+      <c r="F41" s="6" t="s">
         <v>23</v>
-      </c>
-      <c r="F41" s="6" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="42" spans="4:6" ht="29">
       <c r="D42" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E42" s="6">
         <v>50</v>
@@ -5162,7 +5145,7 @@
     </row>
     <row r="43" spans="4:6" ht="29">
       <c r="D43" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E43" s="6">
         <v>110</v>
@@ -5173,7 +5156,7 @@
     </row>
     <row r="44" spans="4:6" ht="29">
       <c r="D44" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E44" s="6">
         <v>80</v>
@@ -5184,7 +5167,7 @@
     </row>
     <row r="45" spans="4:6" ht="29">
       <c r="D45" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E45" s="6">
         <v>105</v>
@@ -5195,7 +5178,7 @@
     </row>
     <row r="46" spans="4:6" ht="29">
       <c r="D46" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E46" s="6">
         <v>200</v>
@@ -5206,7 +5189,7 @@
     </row>
     <row r="47" spans="4:6" ht="29">
       <c r="D47" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E47" s="6">
         <v>220</v>
@@ -5217,7 +5200,7 @@
     </row>
     <row r="48" spans="4:6" ht="29">
       <c r="D48" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E48" s="6">
         <v>225</v>
@@ -5228,7 +5211,7 @@
     </row>
     <row r="49" spans="4:6" ht="29">
       <c r="D49" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E49" s="6">
         <v>350</v>
